--- a/analisis de crecimiento.xlsx
+++ b/analisis de crecimiento.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="100" windowWidth="21320" windowHeight="12600"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25480" windowHeight="14280" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Listado revisado" sheetId="2" r:id="rId1"/>
@@ -7254,7 +7254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -17376,8 +17376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -17528,8 +17528,8 @@
         <v>61</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="1"/>
-        <v>2.0054794520547925</v>
+        <f>+ROUND(E7/(30.4166666666667), 0)</f>
+        <v>2</v>
       </c>
       <c r="G7" s="3">
         <v>65.960000000000008</v>
